--- a/Zipped Files/T diagram Worksheet.xlsx
+++ b/Zipped Files/T diagram Worksheet.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malon\OneDrive\Documents\CODING DOJO ASSIGNMENTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malonw.FBCWINE\OneDrive\Documents\CODING DOJO ASSIGNMENTS\Zipped Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55210052-C62F-4E22-918A-E9A95DDDA031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14265" yWindow="2610" windowWidth="11490" windowHeight="11385" xr2:uid="{2B5A5F36-1248-473B-A588-F9D7F223E278}"/>
+    <workbookView xWindow="14265" yWindow="2610" windowWidth="11490" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,38 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
-  <si>
-    <t>function abc(number){</t>
-  </si>
-  <si>
-    <t>var sum = 0;</t>
-  </si>
-  <si>
-    <t>for(var i=0; i&lt;=number; I ++){</t>
-  </si>
-  <si>
-    <t>sum=sum+i</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="53">
   <si>
     <t>}</t>
   </si>
   <si>
-    <t>console.log(sum);</t>
-  </si>
-  <si>
-    <t>return sum+10;</t>
-  </si>
-  <si>
-    <t>output - abc(2);</t>
-  </si>
-  <si>
-    <t>console.log(output);</t>
-  </si>
-  <si>
-    <t>T Diagram</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
@@ -75,22 +47,159 @@
     <t>output</t>
   </si>
   <si>
-    <t>abc(2)</t>
-  </si>
-  <si>
-    <t>sum</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
-    <t>number</t>
+    <t>T- Diagram</t>
+  </si>
+  <si>
+    <t>change</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>function multiply(x,y){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    console.log(x);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    console.log(y);</t>
+  </si>
+  <si>
+    <t>var b = multiply(2,3);</t>
+  </si>
+  <si>
+    <t>console.log(b);</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return x*y;</t>
+  </si>
+  <si>
+    <t>console.log(multiply(5,2));</t>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>muli</t>
+  </si>
+  <si>
+    <t>var x = [1,2,3,4,5,10];</t>
+  </si>
+  <si>
+    <t>for(var i=0; i&lt;5; i++)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   i = i + 3; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   console.log(i);</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5,10]</t>
+  </si>
+  <si>
+    <t>i=i+3</t>
+  </si>
+  <si>
+    <t>var x=15;</t>
+  </si>
+  <si>
+    <t>console.log(x);</t>
+  </si>
+  <si>
+    <t>function foo(){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    var x=10;</t>
+  </si>
+  <si>
+    <t>foo();</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>for(var i=0; i&lt;15; i+=2){</t>
+  </si>
+  <si>
+    <t>for(var i=0; i&lt;3; i++){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">       console.log(i*j);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   for(var j=0; j&lt;2; j++){</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>function foo(x,y){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   for(var i=0; i&lt;x; i++){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      for(var j=0; j&lt;x; j++){ +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">          console.log(i*j);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      } </t>
+  </si>
+  <si>
+    <t>var z = foo(3,3);</t>
+  </si>
+  <si>
+    <t>console.log(z);</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>n.a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      for(var j=0; j&lt;y; j++){ +        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         console.log(i*j);</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   return x*y;</t>
+  </si>
+  <si>
+    <t>var z = foo(3,5);</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,18 +209,128 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -120,8 +339,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,112 +698,1121 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD70DA4D-9BA3-49E7-84D4-DB6E3E345424}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="8"/>
+    <col min="5" max="5" width="12.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="8"/>
+    <col min="7" max="9" width="9.140625" style="1"/>
+    <col min="10" max="10" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="4"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="D2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="12">
+        <v>2</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="9">
+        <v>3</v>
+      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="12">
+        <v>3</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="10">
+        <v>6</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="12">
+        <v>6</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="8">
+        <v>5</v>
+      </c>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="12">
+        <v>10</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="9">
+        <v>3</v>
+      </c>
+      <c r="F10" s="8">
+        <v>2</v>
+      </c>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="G17" s="1">
+        <v>7</v>
+      </c>
+      <c r="J17" s="12">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1">
+        <v>15</v>
+      </c>
+      <c r="J22" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="1">
+        <v>15</v>
+      </c>
+      <c r="J28" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="1">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="J29" s="12">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="1">
+        <v>15</v>
+      </c>
+      <c r="J30" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2</v>
+      </c>
+      <c r="J34" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="J35" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E36" s="1">
+        <v>6</v>
+      </c>
+      <c r="J36" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E37" s="1">
+        <v>8</v>
+      </c>
+      <c r="J37" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E38" s="1">
+        <v>10</v>
+      </c>
+      <c r="J38" s="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E39" s="1">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="J39" s="12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E40" s="1">
+        <v>14</v>
+      </c>
+      <c r="J40" s="12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15"/>
+      <c r="D42" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="8">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" s="8">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D46" s="8">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="I46" s="1">
+        <v>1</v>
+      </c>
+      <c r="J46" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="D47" s="8">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D48" s="8">
+        <v>2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>1</v>
+      </c>
+      <c r="I48" s="1">
+        <v>2</v>
+      </c>
+      <c r="J48" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="15"/>
+      <c r="D50" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F50" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G50" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G3">
+      <c r="H50" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" s="15"/>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="8">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G51" s="1">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="8">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="8">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>2</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="8">
+        <v>1</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="8">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="I55" s="1">
+        <v>1</v>
+      </c>
+      <c r="J55" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1</v>
+      </c>
+      <c r="E56" s="1">
+        <v>2</v>
+      </c>
+      <c r="I56" s="1">
+        <v>2</v>
+      </c>
+      <c r="J56" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="8">
+        <v>2</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D58" s="8">
+        <v>2</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="I58" s="1">
+        <v>2</v>
+      </c>
+      <c r="J58" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="8">
+        <v>2</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+      <c r="I59" s="1">
+        <v>4</v>
+      </c>
+      <c r="J59" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H60" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J60" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="11"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D63" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" s="8">
+        <v>0</v>
+      </c>
+      <c r="E64" s="1">
+        <v>0</v>
+      </c>
+      <c r="F64" s="8">
+        <v>3</v>
+      </c>
+      <c r="G64" s="1">
+        <v>5</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>41</v>
+      </c>
+      <c r="D65" s="8">
+        <v>0</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>49</v>
+      </c>
+      <c r="D66" s="8">
+        <v>0</v>
+      </c>
+      <c r="E66" s="1">
+        <v>2</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" s="8">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1">
+        <v>3</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="8">
+        <v>0</v>
+      </c>
+      <c r="E68" s="1">
+        <v>4</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="8">
+        <v>1</v>
+      </c>
+      <c r="E69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>51</v>
+      </c>
+      <c r="D70" s="8">
+        <v>1</v>
+      </c>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1">
+        <v>1</v>
+      </c>
+      <c r="J70" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="D71" s="8">
+        <v>1</v>
+      </c>
+      <c r="E71" s="1">
+        <v>2</v>
+      </c>
+      <c r="I71" s="1">
+        <v>2</v>
+      </c>
+      <c r="J71" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>52</v>
+      </c>
+      <c r="D72" s="8">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1">
+        <v>3</v>
+      </c>
+      <c r="I72" s="1">
+        <v>3</v>
+      </c>
+      <c r="J72" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="D73" s="8">
+        <v>1</v>
+      </c>
+      <c r="E73" s="1">
+        <v>4</v>
+      </c>
+      <c r="I73" s="1">
+        <v>4</v>
+      </c>
+      <c r="J73" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D74" s="8">
+        <v>2</v>
+      </c>
+      <c r="E74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D75" s="8">
+        <v>2</v>
+      </c>
+      <c r="E75" s="1">
+        <v>1</v>
+      </c>
+      <c r="I75" s="1">
+        <v>2</v>
+      </c>
+      <c r="J75" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D76" s="8">
+        <v>2</v>
+      </c>
+      <c r="E76" s="1">
+        <v>2</v>
+      </c>
+      <c r="I76" s="1">
+        <v>4</v>
+      </c>
+      <c r="J76" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D77" s="8">
+        <v>2</v>
+      </c>
+      <c r="E77" s="1">
+        <v>3</v>
+      </c>
+      <c r="I77" s="1">
+        <v>6</v>
+      </c>
+      <c r="J77" s="12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="D78" s="8">
+        <v>2</v>
+      </c>
+      <c r="E78" s="1">
+        <v>4</v>
+      </c>
+      <c r="I78" s="1">
+        <v>8</v>
+      </c>
+      <c r="J78" s="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="H79" s="1">
         <v>15</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>8</v>
+      <c r="I79" s="1">
+        <v>15</v>
+      </c>
+      <c r="J79" s="12">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="K1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>